--- a/partial measurement invariance.xlsx
+++ b/partial measurement invariance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorroucogonzalez/projects/IPIP_git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B6F7FBF-061E-8540-B9CD-6E871817CEF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07236CDD-0CF2-E146-81C6-F14205C44B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10300" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{0F69D1FE-FC63-5B4F-9DB4-9173280CD325}"/>
+    <workbookView xWindow="6900" yWindow="1660" windowWidth="28040" windowHeight="17440" xr2:uid="{0F69D1FE-FC63-5B4F-9DB4-9173280CD325}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Domain</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Intellect</t>
+  </si>
+  <si>
+    <t>Partial scalar</t>
   </si>
 </sst>
 </file>
@@ -540,21 +543,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548AF8D2-7ED6-1043-BA55-C1109F927FB4}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E31"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="2" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,16 +566,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -579,186 +586,181 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
       <c r="D25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
         <v>45</v>
       </c>
-      <c r="D29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
         <v>51</v>
       </c>
     </row>
